--- a/results/I3_N5_M3_T30_C100_DepCentral_s4_res_fix.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s4_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>871.8646384127513</v>
+        <v>470.3346384127427</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01600003242492676</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.33463841274267</v>
+        <v>32.33463841274268</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.669925165571576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.669925165571576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>311.9200000000241</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.6099999999846</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,94 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -733,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -755,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -766,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -777,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -788,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -846,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -879,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -970,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.384048268047589</v>
+        <v>21.61595173195241</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.82590537679314</v>
+        <v>25.96623907878365</v>
       </c>
     </row>
     <row r="9">
@@ -1018,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.38078477376724</v>
+        <v>25.14560977921956</v>
       </c>
     </row>
   </sheetData>
@@ -1032,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1060,118 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.995</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1284,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1295,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.665</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.505</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1317,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1328,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>108.53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1339,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>115.89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1350,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>114.45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -1361,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>117.09</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1372,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>110.24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -1383,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>111.9900000000022</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1394,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>117.0450000000025</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1405,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>115.3250000000026</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1416,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>112.3300000000023</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1427,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>110.3950000000026</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1438,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>46.63</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -1449,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>48.8</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
@@ -1460,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>46.7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -1471,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>51</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
@@ -1482,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>47.43</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
@@ -1493,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.89500000000147</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
@@ -1504,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.82000000000176</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -1515,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17500000000184</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -1526,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68500000000152</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -1537,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32">
@@ -1548,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.9900000000022</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
@@ -1559,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>117.0450000000025</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
@@ -1570,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>115.3250000000026</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -1581,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>112.3300000000023</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36">
@@ -1592,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>110.3950000000026</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -1603,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>107.995</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -1614,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>105.51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -1625,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>104.665</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -1636,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>104.505</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -1647,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>96.60500000000008</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -1658,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>108.53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43">
@@ -1669,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>115.89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44">
@@ -1680,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>114.45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
@@ -1691,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>117.09</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
@@ -1702,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>110.24</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.99000000000219</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -1760,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>17.04500000000249</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -1771,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>15.32500000000256</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1782,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>12.33000000000225</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1793,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>10.39500000000258</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1804,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.995000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1815,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>5.509999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1826,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4.665000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1837,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.504999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1859,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.530000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1870,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1881,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>14.45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1892,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>17.09</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1903,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>10.24000000000001</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2016,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2027,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>26.885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2038,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>27.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2049,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2060,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -2071,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -2082,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2093,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2104,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2115,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2126,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2137,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2148,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2170,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.589999999998246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2181,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.944999999997954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2192,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.329999999997868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2203,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.37499999999819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2214,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2228,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2255,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2266,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2277,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2288,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2299,10 +2099,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2310,10 +2110,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2321,10 +2121,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2332,78 +2132,12 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
